--- a/eva/_results/results_en_copy.xlsx
+++ b/eva/_results/results_en_copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minghe/llm4faas/eva/_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9297BD47-C1D6-6E40-B0BB-4E32C2E9F195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99540FA-5B3F-C443-AFED-5B29659029E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26480" activeTab="3" xr2:uid="{722548EF-65F8-7844-B682-C9AB7C87B0A2}"/>
+    <workbookView xWindow="20600" yWindow="0" windowWidth="20360" windowHeight="23040" activeTab="3" xr2:uid="{722548EF-65F8-7844-B682-C9AB7C87B0A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Remote Control" sheetId="6" r:id="rId1"/>
@@ -961,7 +961,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,6 +1040,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="47">
     <border>
@@ -1630,7 +1642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1851,28 +1863,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1884,6 +1956,57 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1920,197 +2043,59 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2120,30 +2105,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1"/>
@@ -2151,59 +2112,138 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2542,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865771CF-6E95-474B-850E-6C01114E9F7B}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A40"/>
+    <sheetView topLeftCell="A5" zoomScale="143" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3314,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F850FA2-C63D-F443-9008-6A0C00232DF0}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3335,57 +3375,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="173"/>
-      <c r="B2" s="176" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176" t="s">
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="174"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="21" t="s">
         <v>11</v>
       </c>
@@ -3445,21 +3485,21 @@
       <c r="D4" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="129" t="s">
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="130"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="142"/>
-      <c r="M4" s="143"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="153"/>
+      <c r="M4" s="154"/>
       <c r="N4" s="70" t="s">
         <v>136</v>
       </c>
@@ -3492,16 +3532,16 @@
       <c r="G5" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="I5" s="133"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="142"/>
-      <c r="M5" s="143"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="153"/>
+      <c r="M5" s="154"/>
       <c r="N5" s="52" t="s">
         <v>137</v>
       </c>
@@ -3534,16 +3574,16 @@
       <c r="G6" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="142"/>
-      <c r="M6" s="143"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="153"/>
+      <c r="M6" s="154"/>
       <c r="N6" s="72" t="s">
         <v>34</v>
       </c>
@@ -3585,16 +3625,16 @@
       <c r="J7" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="K7" s="126" t="s">
+      <c r="K7" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="L7" s="127"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="150" t="s">
+      <c r="L7" s="147"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="O7" s="151"/>
-      <c r="P7" s="152"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="134"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
@@ -3618,55 +3658,55 @@
       <c r="G8" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="132" t="s">
+      <c r="H8" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="142"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="161" t="s">
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="153"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="O8" s="162"/>
-      <c r="P8" s="163"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="142"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="150" t="s">
+      <c r="B9" s="240" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="240" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="240" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="241" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="132" t="s">
+      <c r="F9" s="242"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="142"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="150" t="s">
+      <c r="I9" s="245"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="247" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="248"/>
+      <c r="M9" s="249"/>
+      <c r="N9" s="241" t="s">
         <v>142</v>
       </c>
-      <c r="O9" s="151"/>
-      <c r="P9" s="152"/>
+      <c r="O9" s="242"/>
+      <c r="P9" s="243"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -3690,21 +3730,21 @@
       <c r="G10" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="142"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="150" t="s">
+      <c r="I10" s="170"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="153"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="O10" s="151"/>
-      <c r="P10" s="152"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="134"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
@@ -3728,21 +3768,21 @@
       <c r="G11" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="135" t="s">
+      <c r="H11" s="172" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="147" t="s">
+      <c r="I11" s="173"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="148"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="164" t="s">
+      <c r="L11" s="156"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="O11" s="165"/>
-      <c r="P11" s="166"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="145"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
@@ -3766,16 +3806,16 @@
       <c r="G12" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="132" t="s">
+      <c r="H12" s="169" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="142"/>
-      <c r="M12" s="143"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="153"/>
+      <c r="M12" s="154"/>
       <c r="N12" s="52" t="s">
         <v>144</v>
       </c>
@@ -3817,11 +3857,11 @@
       <c r="J13" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="142"/>
-      <c r="M13" s="143"/>
+      <c r="K13" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="153"/>
+      <c r="M13" s="154"/>
       <c r="N13" s="72" t="s">
         <v>34</v>
       </c>
@@ -3845,11 +3885,11 @@
       <c r="D14" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="E14" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="137"/>
       <c r="H14" s="66" t="s">
         <v>34</v>
       </c>
@@ -3859,15 +3899,15 @@
       <c r="J14" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="142"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="150" t="s">
+      <c r="K14" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="153"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="O14" s="151"/>
+      <c r="O14" s="133"/>
       <c r="P14" s="66" t="s">
         <v>34</v>
       </c>
@@ -3903,16 +3943,16 @@
       <c r="J15" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="142"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="126" t="s">
+      <c r="K15" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="153"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="O15" s="127"/>
-      <c r="P15" s="128"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="148"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
@@ -3936,55 +3976,55 @@
       <c r="G16" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="132" t="s">
+      <c r="H16" s="169" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="142"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="150" t="s">
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="153"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="134"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="240" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="240" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="240" t="s">
         <v>260</v>
       </c>
-      <c r="E17" s="150" t="s">
+      <c r="E17" s="241" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="151"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="132" t="s">
+      <c r="F17" s="242"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="244" t="s">
         <v>227</v>
       </c>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="142"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="150" t="s">
+      <c r="I17" s="245"/>
+      <c r="J17" s="246"/>
+      <c r="K17" s="247" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="248"/>
+      <c r="M17" s="249"/>
+      <c r="N17" s="241" t="s">
         <v>142</v>
       </c>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
+      <c r="O17" s="242"/>
+      <c r="P17" s="243"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
@@ -4007,16 +4047,16 @@
       </c>
       <c r="I18" s="62"/>
       <c r="J18" s="69"/>
-      <c r="K18" s="123" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="124"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="164" t="s">
+      <c r="K18" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="164"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="O18" s="165"/>
-      <c r="P18" s="166"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="145"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
@@ -4040,21 +4080,21 @@
       <c r="G19" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="138" t="s">
+      <c r="H19" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="142"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="150" t="s">
+      <c r="I19" s="176"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="153"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="O19" s="151"/>
-      <c r="P19" s="152"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="134"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
@@ -4087,11 +4127,11 @@
       <c r="J20" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="K20" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="142"/>
-      <c r="M20" s="143"/>
+      <c r="K20" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
       <c r="N20" s="67" t="s">
         <v>81</v>
       </c>
@@ -4133,11 +4173,11 @@
       <c r="J21" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="K21" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="142"/>
-      <c r="M21" s="143"/>
+      <c r="K21" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="153"/>
+      <c r="M21" s="154"/>
       <c r="N21" s="72" t="s">
         <v>34</v>
       </c>
@@ -4175,11 +4215,11 @@
       <c r="J22" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143"/>
+      <c r="K22" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="153"/>
+      <c r="M22" s="154"/>
       <c r="N22" s="72" t="s">
         <v>34</v>
       </c>
@@ -4219,11 +4259,11 @@
       <c r="J23" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="K23" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" s="142"/>
-      <c r="M23" s="143"/>
+      <c r="K23" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="153"/>
+      <c r="M23" s="154"/>
       <c r="N23" s="72" t="s">
         <v>34</v>
       </c>
@@ -4256,21 +4296,21 @@
       <c r="G24" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="118" t="s">
+      <c r="H24" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="142"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="150" t="s">
+      <c r="I24" s="159"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="153"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="O24" s="151"/>
-      <c r="P24" s="152"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="134"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
@@ -4303,16 +4343,16 @@
       <c r="J25" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="K25" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="142"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="150" t="s">
+      <c r="K25" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="153"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="O25" s="151"/>
-      <c r="P25" s="152"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="134"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
@@ -4345,16 +4385,16 @@
       <c r="J26" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="K26" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="142"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="150" t="s">
+      <c r="K26" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="153"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="O26" s="151"/>
-      <c r="P26" s="152"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="134"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
@@ -4378,22 +4418,22 @@
       <c r="G27" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="121" t="s">
+      <c r="H27" s="161" t="s">
         <v>236</v>
       </c>
-      <c r="I27" s="122"/>
+      <c r="I27" s="162"/>
       <c r="J27" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="142"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="126" t="s">
+      <c r="K27" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="153"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="127"/>
+      <c r="O27" s="147"/>
       <c r="P27" s="66" t="s">
         <v>34</v>
       </c>
@@ -4429,16 +4469,16 @@
       <c r="J28" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" s="142"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="150" t="s">
+      <c r="K28" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="153"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="O28" s="151"/>
-      <c r="P28" s="152"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="134"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
@@ -4471,16 +4511,16 @@
       <c r="J29" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="126" t="s">
+      <c r="K29" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="L29" s="127"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="144" t="s">
+      <c r="L29" s="147"/>
+      <c r="M29" s="148"/>
+      <c r="N29" s="149" t="s">
         <v>142</v>
       </c>
-      <c r="O29" s="145"/>
-      <c r="P29" s="146"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="151"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
@@ -4501,65 +4541,65 @@
       <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="159" t="s">
+      <c r="A31" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="160"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="139"/>
     </row>
     <row r="32" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="167" t="s">
+      <c r="C32" s="122"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="168"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="167" t="s">
+      <c r="F32" s="122"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="168"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="167" t="s">
+      <c r="I32" s="122"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="L32" s="168"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="167" t="s">
+      <c r="L32" s="122"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="O32" s="168"/>
-      <c r="P32" s="169"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="123"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="12">
+        <v>16</v>
+      </c>
+      <c r="C33" s="12">
         <v>17</v>
       </c>
-      <c r="C33" s="12">
-        <v>18</v>
-      </c>
       <c r="D33" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="12">
         <v>13</v>
@@ -4653,49 +4693,49 @@
         <v>19</v>
       </c>
       <c r="B35" s="14">
+        <v>3</v>
+      </c>
+      <c r="C35" s="14">
         <v>4</v>
       </c>
-      <c r="C35" s="14">
+      <c r="D35" s="14">
+        <v>2</v>
+      </c>
+      <c r="E35" s="14">
         <v>5</v>
       </c>
-      <c r="D35" s="14">
+      <c r="F35" s="14">
+        <v>7</v>
+      </c>
+      <c r="G35" s="14">
         <v>3</v>
       </c>
-      <c r="E35" s="14">
-        <v>7</v>
-      </c>
-      <c r="F35" s="14">
-        <v>9</v>
-      </c>
-      <c r="G35" s="14">
-        <v>5</v>
-      </c>
       <c r="H35" s="14">
+        <v>10</v>
+      </c>
+      <c r="I35" s="14">
         <v>12</v>
       </c>
-      <c r="I35" s="14">
-        <v>14</v>
-      </c>
       <c r="J35" s="14">
+        <v>11</v>
+      </c>
+      <c r="K35" s="14">
+        <v>22</v>
+      </c>
+      <c r="L35" s="14">
+        <v>22</v>
+      </c>
+      <c r="M35" s="14">
+        <v>22</v>
+      </c>
+      <c r="N35" s="14">
         <v>13</v>
       </c>
-      <c r="K35" s="14">
-        <v>24</v>
-      </c>
-      <c r="L35" s="14">
-        <v>24</v>
-      </c>
-      <c r="M35" s="14">
-        <v>24</v>
-      </c>
-      <c r="N35" s="14">
-        <v>15</v>
-      </c>
       <c r="O35" s="14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P35" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -4703,49 +4743,49 @@
         <v>20</v>
       </c>
       <c r="B36" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H36" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K36" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L36" s="27">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="M36" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N36" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O36" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P36" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -4754,134 +4794,134 @@
       </c>
       <c r="B37" s="23">
         <f t="shared" ref="B37:M37" si="0">SUM(B33:B35)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="23">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="23">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" s="23">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F37" s="23">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G37" s="23">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H37" s="23">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J37" s="23">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K37" s="23">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L37" s="23">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M37" s="23">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" ref="N37:P37" si="1">SUM(N33:N35)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O37" s="23">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P37" s="23">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="170">
+      <c r="B38" s="118">
         <f>SUM(B33:D33)/SUM(B37:D37)</f>
-        <v>0.77464788732394363</v>
-      </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170">
+        <v>0.8</v>
+      </c>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118">
         <f>SUM(E33:G33)/SUM(E37:G37)</f>
-        <v>0.38028169014084506</v>
-      </c>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170">
+        <v>0.41538461538461541</v>
+      </c>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="118">
         <f>SUM(H33:J33)/SUM(H37:J37)</f>
-        <v>8.4507042253521125E-2</v>
-      </c>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170">
+        <v>9.2307692307692313E-2</v>
+      </c>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118">
         <f>SUM(K32,L32,M32,M33,L33,K33)/SUM(K36,L36,M36)</f>
         <v>0</v>
       </c>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="170">
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118">
         <f>SUM(N33:P33)/SUM(N37:P37)</f>
-        <v>0.23943661971830985</v>
-      </c>
-      <c r="O38" s="170"/>
-      <c r="P38" s="170"/>
+        <v>0.26153846153846155</v>
+      </c>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
     </row>
     <row r="39" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="171">
+      <c r="B39" s="119">
         <f>SUM(B33,C33,D33,D34,C34,B34)/SUM(B37,C37,D37)</f>
-        <v>0.83098591549295775</v>
-      </c>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171">
+        <v>0.86153846153846159</v>
+      </c>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119">
         <f>SUM(E33,F33,G33,G34,F34,E34)/SUM(E37,F37,G37)</f>
-        <v>0.70422535211267601</v>
-      </c>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119">
         <f>SUM(H33,I33,J33,J34,I34,H34)/SUM(H37,I37,J37)</f>
-        <v>0.45070422535211269</v>
-      </c>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171">
+        <v>0.49230769230769234</v>
+      </c>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119">
         <f>SUM(K33,L33,M33,M34,L34,K34)/SUM(K37,L37,M37)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="171"/>
-      <c r="M39" s="171"/>
-      <c r="N39" s="171">
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119">
         <f>SUM(N33,O33,P33,P34,O34,N34)/SUM(N37,O37,P37)</f>
-        <v>0.39436619718309857</v>
-      </c>
-      <c r="O39" s="171"/>
-      <c r="P39" s="171"/>
+        <v>0.43076923076923079</v>
+      </c>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B40" s="44"/>
@@ -4901,18 +4941,18 @@
       <c r="P40" s="44"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="177"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
-      <c r="E41" s="177"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="177"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
@@ -4938,14 +4978,67 @@
     <row r="47" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N38:P38"/>
     <mergeCell ref="N39:P39"/>
@@ -4962,67 +5055,14 @@
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="K39:M39"/>
     <mergeCell ref="K38:M38"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5033,7 +5073,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:G33"/>
+      <selection activeCell="E41" sqref="E41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5046,57 +5086,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="173"/>
-      <c r="B2" s="223" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176" t="s">
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="173"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
@@ -5165,21 +5205,21 @@
       <c r="G4" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="192" t="s">
+      <c r="H4" s="219" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="193"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="132" t="s">
+      <c r="I4" s="220"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="133"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="205" t="s">
+      <c r="L4" s="170"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="O4" s="206"/>
-      <c r="P4" s="207"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="198"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
@@ -5203,21 +5243,21 @@
       <c r="G5" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="195" t="s">
+      <c r="H5" s="222" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="196"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="132" t="s">
+      <c r="I5" s="223"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="L5" s="133"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="205" t="s">
+      <c r="L5" s="170"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="O5" s="206"/>
-      <c r="P5" s="207"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="198"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
@@ -5241,21 +5281,21 @@
       <c r="G6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="183" t="s">
+      <c r="H6" s="225" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="184"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="190"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="121" t="s">
+      <c r="I6" s="226"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="217"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="178"/>
-      <c r="P6" s="179"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="185"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
@@ -5288,16 +5328,16 @@
       <c r="J7" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="K7" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="190"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="219" t="s">
+      <c r="K7" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="217"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="220"/>
-      <c r="P7" s="221"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="204"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
@@ -5324,20 +5364,20 @@
       <c r="H8" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="183" t="s">
+      <c r="I8" s="225" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="185"/>
-      <c r="K8" s="132" t="s">
+      <c r="J8" s="227"/>
+      <c r="K8" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="L8" s="133"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="216" t="s">
+      <c r="L8" s="170"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="199" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="217"/>
-      <c r="P8" s="218"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="201"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
@@ -5370,16 +5410,16 @@
       <c r="J9" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="K9" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="190"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="208" t="s">
+      <c r="K9" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="217"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="205" t="s">
         <v>122</v>
       </c>
-      <c r="O9" s="209"/>
-      <c r="P9" s="210"/>
+      <c r="O9" s="206"/>
+      <c r="P9" s="207"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -5412,16 +5452,16 @@
       <c r="J10" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="190"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="205" t="s">
+      <c r="K10" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="217"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="O10" s="206"/>
-      <c r="P10" s="207"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="198"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
@@ -5454,16 +5494,16 @@
       <c r="J11" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="K11" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="190"/>
-      <c r="M11" s="191"/>
-      <c r="N11" s="205" t="s">
+      <c r="K11" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="217"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="O11" s="206"/>
-      <c r="P11" s="207"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="198"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
@@ -5496,16 +5536,16 @@
       <c r="J12" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="K12" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="190"/>
-      <c r="M12" s="191"/>
-      <c r="N12" s="208" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="209"/>
-      <c r="P12" s="210"/>
+      <c r="K12" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="217"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="206"/>
+      <c r="P12" s="207"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
@@ -5520,11 +5560,11 @@
       <c r="D13" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="178"/>
-      <c r="G13" s="179"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="185"/>
       <c r="H13" s="52" t="s">
         <v>194</v>
       </c>
@@ -5534,26 +5574,26 @@
       <c r="J13" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="K13" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="190"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="205" t="s">
+      <c r="K13" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="217"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="196" t="s">
         <v>123</v>
       </c>
-      <c r="O13" s="206"/>
-      <c r="P13" s="207"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="198"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="232" t="s">
+      <c r="B14" s="178" t="s">
         <v>269</v>
       </c>
-      <c r="C14" s="233"/>
-      <c r="D14" s="234"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="56" t="s">
         <v>34</v>
       </c>
@@ -5566,20 +5606,20 @@
       <c r="H14" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="I14" s="132" t="s">
+      <c r="I14" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="J14" s="134"/>
-      <c r="K14" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="190"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="205" t="s">
+      <c r="J14" s="171"/>
+      <c r="K14" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="217"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="O14" s="206"/>
-      <c r="P14" s="207"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="198"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
@@ -5612,16 +5652,16 @@
       <c r="J15" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="K15" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="190"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="205" t="s">
+      <c r="K15" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="217"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="196" t="s">
         <v>124</v>
       </c>
-      <c r="O15" s="206"/>
-      <c r="P15" s="207"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="198"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
@@ -5654,16 +5694,16 @@
       <c r="J16" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="K16" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="190"/>
-      <c r="M16" s="191"/>
-      <c r="N16" s="205" t="s">
+      <c r="K16" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="217"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="O16" s="206"/>
-      <c r="P16" s="207"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="198"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
@@ -5678,26 +5718,26 @@
       <c r="D17" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="178"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="121" t="s">
+      <c r="F17" s="184"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="161" t="s">
         <v>200</v>
       </c>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="132" t="s">
+      <c r="I17" s="184"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="L17" s="133"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="202" t="s">
+      <c r="L17" s="170"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="203"/>
-      <c r="P17" s="204"/>
+      <c r="O17" s="209"/>
+      <c r="P17" s="210"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
@@ -5712,21 +5752,21 @@
       <c r="D18" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="229" t="s">
+      <c r="E18" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="230"/>
-      <c r="G18" s="231"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="191"/>
       <c r="H18" s="80" t="s">
         <v>201</v>
       </c>
       <c r="I18" s="81"/>
       <c r="J18" s="82"/>
-      <c r="K18" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="190"/>
-      <c r="M18" s="191"/>
+      <c r="K18" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="217"/>
+      <c r="M18" s="218"/>
       <c r="N18" s="211" t="s">
         <v>126</v>
       </c>
@@ -5746,26 +5786,26 @@
       <c r="D19" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="178"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="198" t="s">
+      <c r="F19" s="184"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="228" t="s">
         <v>202</v>
       </c>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="190"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="205" t="s">
+      <c r="I19" s="229"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="217"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="O19" s="206"/>
-      <c r="P19" s="207"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="198"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
@@ -5780,21 +5820,21 @@
       <c r="D20" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="E20" s="229" t="s">
+      <c r="E20" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="230"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="132" t="s">
+      <c r="F20" s="190"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="169" t="s">
         <v>203</v>
       </c>
-      <c r="I20" s="133"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="190"/>
-      <c r="M20" s="191"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="217"/>
+      <c r="M20" s="218"/>
       <c r="N20" s="211" t="s">
         <v>126</v>
       </c>
@@ -5826,15 +5866,15 @@
       <c r="H21" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="I21" s="201" t="s">
+      <c r="I21" s="231" t="s">
         <v>204</v>
       </c>
-      <c r="J21" s="134"/>
-      <c r="K21" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="190"/>
-      <c r="M21" s="191"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="217"/>
+      <c r="M21" s="218"/>
       <c r="N21" s="54" t="s">
         <v>129</v>
       </c>
@@ -5865,21 +5905,21 @@
       <c r="G22" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="121" t="s">
+      <c r="H22" s="161" t="s">
         <v>200</v>
       </c>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="132" t="s">
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="L22" s="133"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="205" t="s">
+      <c r="L22" s="170"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="O22" s="206"/>
-      <c r="P22" s="207"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="198"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
@@ -5894,21 +5934,21 @@
       <c r="D23" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="235" t="s">
+      <c r="E23" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="236"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="180" t="s">
+      <c r="F23" s="182"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="I23" s="181"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="132" t="s">
+      <c r="I23" s="233"/>
+      <c r="J23" s="234"/>
+      <c r="K23" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="L23" s="133"/>
-      <c r="M23" s="134"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="171"/>
       <c r="N23" s="54" t="s">
         <v>129</v>
       </c>
@@ -5939,16 +5979,16 @@
       <c r="G24" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="183" t="s">
+      <c r="H24" s="225" t="s">
         <v>206</v>
       </c>
-      <c r="I24" s="184"/>
-      <c r="J24" s="185"/>
-      <c r="K24" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="190"/>
-      <c r="M24" s="191"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="227"/>
+      <c r="K24" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="217"/>
+      <c r="M24" s="218"/>
       <c r="N24" s="50" t="s">
         <v>132</v>
       </c>
@@ -5972,26 +6012,26 @@
       <c r="D25" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="E25" s="235" t="s">
+      <c r="E25" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="236"/>
-      <c r="G25" s="237"/>
-      <c r="H25" s="121" t="s">
+      <c r="F25" s="182"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="161" t="s">
         <v>194</v>
       </c>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="132" t="s">
+      <c r="I25" s="184"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="L25" s="133"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="121" t="s">
+      <c r="L25" s="170"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="161" t="s">
         <v>133</v>
       </c>
-      <c r="O25" s="178"/>
-      <c r="P25" s="122"/>
+      <c r="O25" s="184"/>
+      <c r="P25" s="162"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
@@ -6006,11 +6046,11 @@
       <c r="D26" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="121" t="s">
+      <c r="E26" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="178"/>
-      <c r="G26" s="179"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="185"/>
       <c r="H26" s="85" t="s">
         <v>188</v>
       </c>
@@ -6020,16 +6060,16 @@
       <c r="J26" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="K26" s="132" t="s">
+      <c r="K26" s="169" t="s">
         <v>168</v>
       </c>
-      <c r="L26" s="133"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="202" t="s">
+      <c r="L26" s="170"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="O26" s="203"/>
-      <c r="P26" s="204"/>
+      <c r="O26" s="209"/>
+      <c r="P26" s="210"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
@@ -6044,21 +6084,21 @@
       <c r="D27" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="235" t="s">
+      <c r="E27" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="236"/>
-      <c r="G27" s="237"/>
-      <c r="H27" s="132" t="s">
+      <c r="F27" s="182"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="190"/>
-      <c r="M27" s="191"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="217"/>
+      <c r="M27" s="218"/>
       <c r="N27" s="55" t="s">
         <v>129</v>
       </c>
@@ -6091,21 +6131,21 @@
       <c r="G28" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="186" t="s">
+      <c r="H28" s="235" t="s">
         <v>209</v>
       </c>
-      <c r="I28" s="187"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="132" t="s">
+      <c r="I28" s="236"/>
+      <c r="J28" s="237"/>
+      <c r="K28" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="133"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="205" t="s">
+      <c r="L28" s="170"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="O28" s="206"/>
-      <c r="P28" s="207"/>
+      <c r="O28" s="197"/>
+      <c r="P28" s="198"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
@@ -6120,11 +6160,11 @@
       <c r="D29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="226" t="s">
+      <c r="E29" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="227"/>
-      <c r="G29" s="228"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="188"/>
       <c r="H29" s="52" t="s">
         <v>205</v>
       </c>
@@ -6134,16 +6174,16 @@
       <c r="J29" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="K29" s="189" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="190"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="208" t="s">
+      <c r="K29" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="217"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="205" t="s">
         <v>135</v>
       </c>
-      <c r="O29" s="209"/>
-      <c r="P29" s="210"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="207"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
@@ -6182,52 +6222,52 @@
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="160"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
+      <c r="P32" s="139"/>
     </row>
     <row r="33" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
-      <c r="B33" s="167" t="s">
+      <c r="B33" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="168"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="167" t="s">
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="168"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="167" t="s">
+      <c r="F33" s="122"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="168"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="167" t="s">
+      <c r="I33" s="122"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="L33" s="168"/>
-      <c r="M33" s="169"/>
-      <c r="N33" s="167" t="s">
+      <c r="L33" s="122"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="O33" s="168"/>
-      <c r="P33" s="169"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="123"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
@@ -6498,71 +6538,71 @@
       <c r="A41" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="170">
+      <c r="B41" s="118">
         <f>SUM(B34,C34,D34)/SUM(B38:D38)</f>
         <v>0.52564102564102566</v>
       </c>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170">
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118">
         <f>SUM(E34,F34,G34)/SUM(E38:G38)</f>
         <v>0.29487179487179488</v>
       </c>
-      <c r="F41" s="170"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170">
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118">
         <f>SUM(H34,I34,J34)/SUM(H38:J38)</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="I41" s="170"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170">
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118">
         <f>SUM(K34,L34,M34)/SUM(K38:M38)</f>
         <v>0</v>
       </c>
-      <c r="L41" s="170"/>
-      <c r="M41" s="170"/>
-      <c r="N41" s="170">
+      <c r="L41" s="118"/>
+      <c r="M41" s="118"/>
+      <c r="N41" s="118">
         <f>SUM(N34,O34,P34)/SUM(N38:P38)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="170"/>
-      <c r="P41" s="225"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="193"/>
     </row>
     <row r="42" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="171">
+      <c r="B42" s="119">
         <f>SUM(B34:D35)/SUM(B38:D38)</f>
         <v>0.97435897435897434</v>
       </c>
-      <c r="C42" s="171"/>
-      <c r="D42" s="171"/>
-      <c r="E42" s="171">
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119">
         <f>SUM(E34:G35)/SUM(E38:G38)</f>
         <v>0.75641025641025639</v>
       </c>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171">
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119">
         <f>SUM(H34:J35)/SUM(H38:J38)</f>
         <v>0.48717948717948717</v>
       </c>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171">
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119">
         <f>SUM(K34:M35)/SUM(K38:M38)</f>
         <v>0</v>
       </c>
-      <c r="L42" s="171"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="171">
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119">
         <f>SUM(N34:P35)/SUM(N38:P38)</f>
         <v>0.10256410256410256</v>
       </c>
-      <c r="O42" s="171"/>
-      <c r="P42" s="224"/>
+      <c r="O42" s="119"/>
+      <c r="P42" s="192"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H43" s="86" t="s">
@@ -6571,17 +6611,78 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="A32:P32"/>
@@ -6598,78 +6699,17 @@
     <mergeCell ref="N41:P41"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="K41:M41"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6679,8 +6719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE7BA8A-1596-574F-BB58-7598A3EECCCA}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="149" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
